--- a/Week1_Kibana/data/week1_sample.xlsx
+++ b/Week1_Kibana/data/week1_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>결제카드</t>
   </si>
@@ -65,769 +65,772 @@
     <t>판매자평점</t>
   </si>
   <si>
+    <t>우리</t>
+  </si>
+  <si>
+    <t>234.185.33.16</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>위메프</t>
+  </si>
+  <si>
+    <t>36.19200904870001, 127.12382542582914</t>
+  </si>
+  <si>
+    <t>부재중</t>
+  </si>
+  <si>
+    <t>니트</t>
+  </si>
+  <si>
+    <t>2017-11-08T20:17:58</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>2017-11-07T21:20:58</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>26.185.51.137</t>
+  </si>
+  <si>
+    <t>울산광역시</t>
+  </si>
+  <si>
+    <t>11번가</t>
+  </si>
+  <si>
+    <t>37.21857966629423, 127.08146955533866</t>
+  </si>
+  <si>
+    <t>자켓</t>
+  </si>
+  <si>
+    <t>2017-11-12T06:06:32</t>
+  </si>
+  <si>
+    <t>2017-11-09T19:14:32</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>209.153.69.225</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>36.14867309426788, 126.4458354320774</t>
+  </si>
+  <si>
+    <t>환불 요청</t>
+  </si>
+  <si>
+    <t>남방</t>
+  </si>
+  <si>
+    <t>2017-11-04T10:55:19</t>
+  </si>
+  <si>
+    <t>2017-11-03T04:28:19</t>
+  </si>
+  <si>
     <t>국민</t>
   </si>
   <si>
-    <t>87.186.104.168</t>
+    <t>168.22.77.38</t>
   </si>
   <si>
     <t>여성</t>
   </si>
   <si>
+    <t>37.77207159772037, 126.98744760332342</t>
+  </si>
+  <si>
+    <t>상품 이상</t>
+  </si>
+  <si>
+    <t>스커트</t>
+  </si>
+  <si>
+    <t>2017-11-13T18:01:06</t>
+  </si>
+  <si>
+    <t>2017-11-12T11:49:06</t>
+  </si>
+  <si>
+    <t>128.93.98.172</t>
+  </si>
+  <si>
+    <t>부산광역시</t>
+  </si>
+  <si>
+    <t>35.351958914358725, 127.08757264094429</t>
+  </si>
+  <si>
+    <t>2017-11-03T10:09:39</t>
+  </si>
+  <si>
+    <t>2017-11-02T23:03:39</t>
+  </si>
+  <si>
+    <t>96.76.212.77</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <t>36.71187334490377, 126.08251974690016</t>
+  </si>
+  <si>
+    <t>2017-11-04T00:12:02</t>
+  </si>
+  <si>
+    <t>2017-11-03T07:30:02</t>
+  </si>
+  <si>
+    <t>191.60.9.186</t>
+  </si>
+  <si>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t>티몬</t>
+  </si>
+  <si>
+    <t>37.32897203747714, 127.38858462310444</t>
+  </si>
+  <si>
+    <t>티셔츠</t>
+  </si>
+  <si>
+    <t>2017-11-08T12:05:03</t>
+  </si>
+  <si>
+    <t>2017-11-08T04:20:03</t>
+  </si>
+  <si>
+    <t>175.166.167.148</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>37.26277171619398, 126.02732265630732</t>
+  </si>
+  <si>
+    <t>관리실에 맡김</t>
+  </si>
+  <si>
+    <t>팬츠</t>
+  </si>
+  <si>
+    <t>2017-11-05T04:10:02</t>
+  </si>
+  <si>
+    <t>2017-11-01T15:31:02</t>
+  </si>
+  <si>
+    <t>197.62.25.41</t>
+  </si>
+  <si>
+    <t>37.174657922758, 126.96179188985936</t>
+  </si>
+  <si>
+    <t>점퍼</t>
+  </si>
+  <si>
+    <t>2017-11-07T09:24:33</t>
+  </si>
+  <si>
+    <t>2017-11-04T08:43:33</t>
+  </si>
+  <si>
+    <t>131.195.49.98</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>36.49432678941927, 126.18744291726514</t>
+  </si>
+  <si>
+    <t>베스트</t>
+  </si>
+  <si>
+    <t>2017-11-10T11:25:08</t>
+  </si>
+  <si>
+    <t>예약</t>
+  </si>
+  <si>
+    <t>2017-11-05T19:23:08</t>
+  </si>
+  <si>
+    <t>138.202.68.105</t>
+  </si>
+  <si>
+    <t>35.12004126292568, 127.84134503929798</t>
+  </si>
+  <si>
+    <t>2017-11-11T11:49:17</t>
+  </si>
+  <si>
+    <t>2017-11-10T02:05:17</t>
+  </si>
+  <si>
+    <t>169.24.251.124</t>
+  </si>
+  <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>36.140239372280384, 127.62413565002738</t>
+  </si>
+  <si>
+    <t>2017-11-04T07:07:37</t>
+  </si>
+  <si>
+    <t>2017-11-02T03:58:37</t>
+  </si>
+  <si>
+    <t>142.102.211.196</t>
+  </si>
+  <si>
+    <t>g마켓</t>
+  </si>
+  <si>
+    <t>37.153389241476994, 127.73297945588862</t>
+  </si>
+  <si>
+    <t>2017-11-06T20:43:04</t>
+  </si>
+  <si>
+    <t>2017-11-04T11:43:04</t>
+  </si>
+  <si>
+    <t>25.123.210.13</t>
+  </si>
+  <si>
+    <t>35.03475661918821, 127.8295512891989</t>
+  </si>
+  <si>
+    <t>스웨터</t>
+  </si>
+  <si>
+    <t>2017-11-10T01:54:36</t>
+  </si>
+  <si>
+    <t>2017-11-07T03:57:36</t>
+  </si>
+  <si>
+    <t>135.212.56.13</t>
+  </si>
+  <si>
+    <t>35.57728485070029, 126.8481193344959</t>
+  </si>
+  <si>
+    <t>원피스</t>
+  </si>
+  <si>
+    <t>2017-11-15T06:29:20</t>
+  </si>
+  <si>
+    <t>2017-11-12T05:18:20</t>
+  </si>
+  <si>
+    <t>5.157.46.194</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>옥션</t>
+  </si>
+  <si>
+    <t>35.14057732648772, 127.95660275774597</t>
+  </si>
+  <si>
+    <t>청바지</t>
+  </si>
+  <si>
+    <t>2017-11-02T00:50:52</t>
+  </si>
+  <si>
+    <t>2017-11-01T04:58:52</t>
+  </si>
+  <si>
+    <t>166.140.151.38</t>
+  </si>
+  <si>
+    <t>37.3196154888237, 127.1791864445214</t>
+  </si>
+  <si>
+    <t>시간 내에 배송 못함</t>
+  </si>
+  <si>
+    <t>셔츠</t>
+  </si>
+  <si>
+    <t>2017-11-09T19:48:16</t>
+  </si>
+  <si>
+    <t>2017-11-06T10:14:16</t>
+  </si>
+  <si>
+    <t>153.202.213.239</t>
+  </si>
+  <si>
+    <t>대구광역시</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+  </si>
+  <si>
+    <t>36.15902836587489, 127.2168178070515</t>
+  </si>
+  <si>
+    <t>수트</t>
+  </si>
+  <si>
+    <t>2017-11-11T01:28:43</t>
+  </si>
+  <si>
+    <t>2017-11-07T03:57:43</t>
+  </si>
+  <si>
+    <t>19.11.19.21</t>
+  </si>
+  <si>
+    <t>37.6319776201657, 126.4707025480293</t>
+  </si>
+  <si>
+    <t>2017-11-06T17:22:34</t>
+  </si>
+  <si>
+    <t>2017-11-04T13:40:34</t>
+  </si>
+  <si>
+    <t>16.75.136.212</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>35.63612209204471, 127.7492671991647</t>
+  </si>
+  <si>
+    <t>주소 오류</t>
+  </si>
+  <si>
+    <t>가디건</t>
+  </si>
+  <si>
+    <t>2017-11-09T23:31:36</t>
+  </si>
+  <si>
+    <t>2017-11-09T18:41:36</t>
+  </si>
+  <si>
+    <t>36.184.72.65</t>
+  </si>
+  <si>
+    <t>37.905630454022834, 126.10710058733761</t>
+  </si>
+  <si>
+    <t>2017-11-07T09:10:51</t>
+  </si>
+  <si>
+    <t>2017-11-04T16:59:51</t>
+  </si>
+  <si>
+    <t>140.110.183.29</t>
+  </si>
+  <si>
+    <t>36.114684781007384, 127.43424417355645</t>
+  </si>
+  <si>
+    <t>2017-11-12T20:34:10</t>
+  </si>
+  <si>
+    <t>2017-11-11T13:36:10</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>106.84.95.211</t>
+  </si>
+  <si>
+    <t>35.25121236426949, 126.25993112646294</t>
+  </si>
+  <si>
+    <t>2017-11-10T10:50:22</t>
+  </si>
+  <si>
+    <t>2017-11-09T02:48:22</t>
+  </si>
+  <si>
+    <t>125.152.68.81</t>
+  </si>
+  <si>
     <t>광주광역시</t>
   </si>
   <si>
-    <t>옥션</t>
-  </si>
-  <si>
-    <t>36.69404479407181, 128.77849366125415</t>
-  </si>
-  <si>
-    <t>부재중</t>
-  </si>
-  <si>
-    <t>티셔츠</t>
-  </si>
-  <si>
-    <t>2017-11-04T18:14:01</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>2017-11-01T05:45:01</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>61.25.11.51</t>
-  </si>
-  <si>
-    <t>남성</t>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-  </si>
-  <si>
-    <t>티몬</t>
-  </si>
-  <si>
-    <t>37.33710638991395, 128.19801428893294</t>
-  </si>
-  <si>
-    <t>자켓</t>
-  </si>
-  <si>
-    <t>2017-11-11T03:32:07</t>
-  </si>
-  <si>
-    <t>2017-11-09T16:58:07</t>
-  </si>
-  <si>
-    <t>229.171.146.50</t>
-  </si>
-  <si>
-    <t>부산광역시</t>
-  </si>
-  <si>
-    <t>위메프</t>
-  </si>
-  <si>
-    <t>35.20703842551487, 129.88814822339899</t>
-  </si>
-  <si>
-    <t>주소 오류</t>
-  </si>
-  <si>
-    <t>2017-11-07T06:46:26</t>
-  </si>
-  <si>
-    <t>2017-11-06T20:03:26</t>
-  </si>
-  <si>
-    <t>100.11.208.255</t>
-  </si>
-  <si>
-    <t>충청남도</t>
+    <t>36.668226892925944, 127.30600277494693</t>
+  </si>
+  <si>
+    <t>2017-11-05T20:46:44</t>
+  </si>
+  <si>
+    <t>2017-11-03T06:23:44</t>
+  </si>
+  <si>
+    <t>222.147.181.146</t>
+  </si>
+  <si>
+    <t>37.08276916488313, 126.81423349469469</t>
+  </si>
+  <si>
+    <t>2017-11-06T08:50:31</t>
+  </si>
+  <si>
+    <t>2017-11-05T15:36:31</t>
+  </si>
+  <si>
+    <t>246.79.46.198</t>
+  </si>
+  <si>
+    <t>강원도</t>
+  </si>
+  <si>
+    <t>37.93899262600462, 126.32878580468541</t>
+  </si>
+  <si>
+    <t>2017-11-10T09:33:47</t>
+  </si>
+  <si>
+    <t>2017-11-06T21:53:47</t>
+  </si>
+  <si>
+    <t>83.153.34.35</t>
+  </si>
+  <si>
+    <t>37.10174407033597, 127.5065433320267</t>
+  </si>
+  <si>
+    <t>2017-11-07T07:56:00</t>
+  </si>
+  <si>
+    <t>2017-11-04T17:44:00</t>
+  </si>
+  <si>
+    <t>109.124.95.44</t>
+  </si>
+  <si>
+    <t>35.300951778863315, 127.48182325019548</t>
+  </si>
+  <si>
+    <t>2017-11-12T06:54:50</t>
+  </si>
+  <si>
+    <t>2017-11-11T17:17:50</t>
+  </si>
+  <si>
+    <t>78.31.20.154</t>
   </si>
   <si>
     <t>GS샵</t>
   </si>
   <si>
-    <t>36.383338520582114, 129.92114062561183</t>
-  </si>
-  <si>
-    <t>니트</t>
-  </si>
-  <si>
-    <t>2017-11-05T22:54:35</t>
-  </si>
-  <si>
-    <t>2017-11-03T18:29:35</t>
-  </si>
-  <si>
-    <t>롯데</t>
-  </si>
-  <si>
-    <t>62.73.159.47</t>
-  </si>
-  <si>
-    <t>쿠팡</t>
-  </si>
-  <si>
-    <t>37.82022943242058, 127.73799530036115</t>
-  </si>
-  <si>
-    <t>블라우스</t>
-  </si>
-  <si>
-    <t>2017-11-10T16:02:36</t>
-  </si>
-  <si>
-    <t>2017-11-09T22:37:36</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>28.170.18.252</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>37.92452138343442, 128.67772065089744</t>
-  </si>
-  <si>
-    <t>관리실에 맡김</t>
-  </si>
-  <si>
-    <t>2017-11-08T11:11:55</t>
-  </si>
-  <si>
-    <t>예약</t>
-  </si>
-  <si>
-    <t>2017-11-05T00:41:55</t>
-  </si>
-  <si>
-    <t>197.247.246.203</t>
-  </si>
-  <si>
-    <t>36.663065088906095, 127.92452258110524</t>
-  </si>
-  <si>
-    <t>환불 요청</t>
-  </si>
-  <si>
-    <t>원피스</t>
-  </si>
-  <si>
-    <t>2017-11-09T04:28:44</t>
-  </si>
-  <si>
-    <t>2017-11-06T00:27:44</t>
-  </si>
-  <si>
-    <t>191.96.106.19</t>
+    <t>35.992379515546546, 126.28097054717256</t>
+  </si>
+  <si>
+    <t>2017-11-05T06:57:42</t>
+  </si>
+  <si>
+    <t>2017-11-02T04:23:42</t>
+  </si>
+  <si>
+    <t>19.49.50.133</t>
+  </si>
+  <si>
+    <t>37.71797797503069, 127.73075144231835</t>
+  </si>
+  <si>
+    <t>2017-11-05T01:57:19</t>
+  </si>
+  <si>
+    <t>2017-11-02T16:57:19</t>
+  </si>
+  <si>
+    <t>128.180.69.132</t>
+  </si>
+  <si>
+    <t>35.48676976216273, 126.19502937474762</t>
+  </si>
+  <si>
+    <t>2017-11-10T07:38:17</t>
+  </si>
+  <si>
+    <t>2017-11-10T06:01:17</t>
+  </si>
+  <si>
+    <t>211.133.50.47</t>
+  </si>
+  <si>
+    <t>35.668861174202114, 126.64704336452132</t>
+  </si>
+  <si>
+    <t>2017-11-05T08:41:02</t>
+  </si>
+  <si>
+    <t>2017-11-04T21:51:02</t>
+  </si>
+  <si>
+    <t>151.207.229.242</t>
+  </si>
+  <si>
+    <t>36.122664669179464, 126.00513779743234</t>
+  </si>
+  <si>
+    <t>무인택배함에 보관</t>
+  </si>
+  <si>
+    <t>2017-11-05T12:07:53</t>
+  </si>
+  <si>
+    <t>2017-11-01T10:05:53</t>
+  </si>
+  <si>
+    <t>236.37.137.194</t>
+  </si>
+  <si>
+    <t>37.04802155408121, 126.8338401060271</t>
+  </si>
+  <si>
+    <t>2017-11-11T19:16:46</t>
+  </si>
+  <si>
+    <t>2017-11-09T09:49:46</t>
+  </si>
+  <si>
+    <t>66.138.202.77</t>
+  </si>
+  <si>
+    <t>35.418879888213446, 127.96834321763939</t>
+  </si>
+  <si>
+    <t>2017-11-03T20:43:25</t>
+  </si>
+  <si>
+    <t>2017-11-01T14:37:25</t>
+  </si>
+  <si>
+    <t>121.102.5.136</t>
+  </si>
+  <si>
+    <t>37.039539594075855, 127.24353474916487</t>
+  </si>
+  <si>
+    <t>2017-11-03T11:37:27</t>
+  </si>
+  <si>
+    <t>2017-11-02T13:48:27</t>
+  </si>
+  <si>
+    <t>30.147.149.219</t>
+  </si>
+  <si>
+    <t>37.30298591948346, 127.83348036839155</t>
+  </si>
+  <si>
+    <t>2017-11-12T21:45:01</t>
+  </si>
+  <si>
+    <t>2017-11-11T19:20:01</t>
+  </si>
+  <si>
+    <t>193.182.22.233</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>36.09962029221415, 127.46733012504906</t>
+  </si>
+  <si>
+    <t>2017-11-14T20:39:19</t>
+  </si>
+  <si>
+    <t>2017-11-11T15:26:19</t>
+  </si>
+  <si>
+    <t>109.39.142.24</t>
+  </si>
+  <si>
+    <t>37.96483034239731, 126.53391137468758</t>
+  </si>
+  <si>
+    <t>2017-11-11T21:15:41</t>
+  </si>
+  <si>
+    <t>2017-11-07T22:43:41</t>
+  </si>
+  <si>
+    <t>123.242.175.245</t>
+  </si>
+  <si>
+    <t>37.85959601811983, 127.8278132259522</t>
+  </si>
+  <si>
+    <t>2017-11-06T22:36:26</t>
+  </si>
+  <si>
+    <t>2017-11-06T00:46:26</t>
+  </si>
+  <si>
+    <t>214.70.60.205</t>
+  </si>
+  <si>
+    <t>36.77540999675508, 126.94536095027908</t>
+  </si>
+  <si>
+    <t>2017-11-16T14:38:22</t>
+  </si>
+  <si>
+    <t>2017-11-11T22:09:22</t>
+  </si>
+  <si>
+    <t>17.253.80.70</t>
+  </si>
+  <si>
+    <t>37.40521514321212, 126.24411903877565</t>
+  </si>
+  <si>
+    <t>2017-11-06T03:49:41</t>
+  </si>
+  <si>
+    <t>2017-11-03T07:59:41</t>
+  </si>
+  <si>
+    <t>13.28.143.114</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>35.28244829219282, 126.91146532489792</t>
+  </si>
+  <si>
+    <t>2017-11-02T23:47:19</t>
+  </si>
+  <si>
+    <t>2017-11-02T02:00:19</t>
+  </si>
+  <si>
+    <t>9.180.184.85</t>
+  </si>
+  <si>
+    <t>35.95219096028096, 126.66175975490306</t>
+  </si>
+  <si>
+    <t>2017-11-11T13:50:27</t>
+  </si>
+  <si>
+    <t>2017-11-09T16:41:27</t>
+  </si>
+  <si>
+    <t>236.80.84.120</t>
+  </si>
+  <si>
+    <t>36.0654269253112, 127.38699589403745</t>
+  </si>
+  <si>
+    <t>2017-11-09T18:25:53</t>
+  </si>
+  <si>
+    <t>2017-11-07T09:32:53</t>
+  </si>
+  <si>
+    <t>101.250.133.153</t>
   </si>
   <si>
     <t>인천광역시</t>
   </si>
   <si>
-    <t>35.42099073543264, 126.40755694075982</t>
-  </si>
-  <si>
-    <t>가디건</t>
-  </si>
-  <si>
-    <t>2017-11-11T15:26:16</t>
-  </si>
-  <si>
-    <t>2017-11-09T00:40:16</t>
-  </si>
-  <si>
-    <t>우리</t>
-  </si>
-  <si>
-    <t>212.72.222.135</t>
-  </si>
-  <si>
-    <t>11번가</t>
-  </si>
-  <si>
-    <t>36.204083843135464, 129.24012691531485</t>
-  </si>
-  <si>
-    <t>셔츠</t>
-  </si>
-  <si>
-    <t>2017-11-09T08:59:26</t>
-  </si>
-  <si>
-    <t>2017-11-06T10:28:26</t>
-  </si>
-  <si>
-    <t>62.36.170.71</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>35.56868760610102, 128.3793660808611</t>
-  </si>
-  <si>
-    <t>스커트</t>
-  </si>
-  <si>
-    <t>2017-11-11T15:36:16</t>
-  </si>
-  <si>
-    <t>2017-11-08T02:00:16</t>
-  </si>
-  <si>
-    <t>133.45.118.127</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>37.87201865369285, 126.75507159240954</t>
-  </si>
-  <si>
-    <t>2017-11-09T21:12:40</t>
-  </si>
-  <si>
-    <t>2017-11-07T15:29:40</t>
-  </si>
-  <si>
-    <t>47.181.162.243</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>g마켓</t>
-  </si>
-  <si>
-    <t>35.34373921692427, 129.82903178684617</t>
-  </si>
-  <si>
-    <t>상품 이상</t>
-  </si>
-  <si>
-    <t>점퍼</t>
-  </si>
-  <si>
-    <t>2017-11-13T02:55:41</t>
-  </si>
-  <si>
-    <t>2017-11-09T17:35:41</t>
-  </si>
-  <si>
-    <t>128.195.15.116</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>36.75103099470225, 127.86900765081127</t>
-  </si>
-  <si>
-    <t>2017-11-15T07:17:17</t>
-  </si>
-  <si>
-    <t>2017-11-10T15:53:17</t>
-  </si>
-  <si>
-    <t>50.130.83.231</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>37.78723366594554, 127.99751085613701</t>
-  </si>
-  <si>
-    <t>팬츠</t>
-  </si>
-  <si>
-    <t>2017-11-05T09:26:18</t>
-  </si>
-  <si>
-    <t>2017-11-02T05:28:18</t>
-  </si>
-  <si>
-    <t>161.124.192.177</t>
-  </si>
-  <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>37.89167509773231, 129.89861013896265</t>
-  </si>
-  <si>
-    <t>2017-11-04T18:14:51</t>
-  </si>
-  <si>
-    <t>2017-11-04T08:22:51</t>
-  </si>
-  <si>
-    <t>110.126.36.108</t>
-  </si>
-  <si>
-    <t>35.73286207547757, 128.237959511983</t>
-  </si>
-  <si>
-    <t>2017-11-06T13:32:22</t>
-  </si>
-  <si>
-    <t>2017-11-03T20:15:22</t>
-  </si>
-  <si>
-    <t>166.50.85.215</t>
-  </si>
-  <si>
-    <t>36.43460626090956, 127.63620328140061</t>
-  </si>
-  <si>
-    <t>2017-11-10T03:34:34</t>
-  </si>
-  <si>
-    <t>2017-11-06T06:26:34</t>
-  </si>
-  <si>
-    <t>158.166.47.177</t>
-  </si>
-  <si>
-    <t>35.917645691146234, 128.57392985531072</t>
-  </si>
-  <si>
-    <t>시간 내에 배송 못함</t>
-  </si>
-  <si>
-    <t>2017-11-11T10:43:49</t>
-  </si>
-  <si>
-    <t>2017-11-10T17:03:49</t>
-  </si>
-  <si>
-    <t>15.236.59.18</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>37.509031233865585, 127.79764126292338</t>
-  </si>
-  <si>
-    <t>청바지</t>
-  </si>
-  <si>
-    <t>2017-11-07T20:21:07</t>
-  </si>
-  <si>
-    <t>2017-11-05T04:57:07</t>
-  </si>
-  <si>
-    <t>1.40.46.8</t>
-  </si>
-  <si>
-    <t>36.808561479311756, 128.05531367120452</t>
-  </si>
-  <si>
-    <t>2017-11-08T02:13:44</t>
-  </si>
-  <si>
-    <t>2017-11-04T14:45:44</t>
-  </si>
-  <si>
-    <t>225.158.131.104</t>
-  </si>
-  <si>
-    <t>37.74860963773523, 129.80505939646017</t>
-  </si>
-  <si>
-    <t>베스트</t>
-  </si>
-  <si>
-    <t>2017-11-07T02:24:17</t>
-  </si>
-  <si>
-    <t>2017-11-06T12:47:17</t>
-  </si>
-  <si>
-    <t>192.10.251.35</t>
-  </si>
-  <si>
-    <t>37.784031270602306, 127.89322344305637</t>
-  </si>
-  <si>
-    <t>남방</t>
-  </si>
-  <si>
-    <t>2017-11-12T11:16:23</t>
-  </si>
-  <si>
-    <t>2017-11-08T01:14:23</t>
-  </si>
-  <si>
-    <t>153.183.125.58</t>
-  </si>
-  <si>
-    <t>강원도</t>
-  </si>
-  <si>
-    <t>36.02446595440512, 128.37338819474155</t>
-  </si>
-  <si>
-    <t>2017-11-05T21:01:56</t>
-  </si>
-  <si>
-    <t>2017-11-03T10:37:56</t>
-  </si>
-  <si>
-    <t>148.19.203.84</t>
-  </si>
-  <si>
-    <t>35.1888202093495, 128.58916079461932</t>
+    <t>36.545220426162444, 126.12262607647038</t>
   </si>
   <si>
     <t>코트</t>
   </si>
   <si>
-    <t>2017-11-10T22:46:55</t>
-  </si>
-  <si>
-    <t>2017-11-06T04:46:55</t>
-  </si>
-  <si>
-    <t>165.17.49.145</t>
-  </si>
-  <si>
-    <t>35.418743037985074, 126.58583972979557</t>
-  </si>
-  <si>
-    <t>2017-11-04T18:20:20</t>
-  </si>
-  <si>
-    <t>2017-11-02T04:33:20</t>
-  </si>
-  <si>
-    <t>40.125.200.155</t>
-  </si>
-  <si>
-    <t>35.355523370930555, 126.64192463067211</t>
-  </si>
-  <si>
-    <t>2017-11-05T08:18:15</t>
-  </si>
-  <si>
-    <t>2017-11-05T00:20:15</t>
-  </si>
-  <si>
-    <t>삼성</t>
-  </si>
-  <si>
-    <t>148.212.8.17</t>
-  </si>
-  <si>
-    <t>35.42959783489421, 127.86878397078254</t>
-  </si>
-  <si>
-    <t>2017-11-07T06:14:42</t>
-  </si>
-  <si>
-    <t>2017-11-07T02:40:42</t>
-  </si>
-  <si>
-    <t>218.249.128.251</t>
-  </si>
-  <si>
-    <t>35.96903290104712, 129.07378470988706</t>
-  </si>
-  <si>
-    <t>2017-11-09T09:33:52</t>
-  </si>
-  <si>
-    <t>2017-11-05T04:18:52</t>
-  </si>
-  <si>
-    <t>72.142.47.220</t>
-  </si>
-  <si>
-    <t>36.234355607886094, 127.70245073328189</t>
-  </si>
-  <si>
-    <t>2017-11-12T00:00:00</t>
-  </si>
-  <si>
-    <t>2017-11-09T21:57:00</t>
-  </si>
-  <si>
-    <t>206.168.117.214</t>
-  </si>
-  <si>
-    <t>37.85255506645674, 129.5384026998396</t>
-  </si>
-  <si>
-    <t>2017-11-05T14:28:24</t>
-  </si>
-  <si>
-    <t>2017-11-04T08:22:24</t>
-  </si>
-  <si>
-    <t>105.222.155.59</t>
-  </si>
-  <si>
-    <t>35.85935017775508, 128.89657781645107</t>
-  </si>
-  <si>
-    <t>2017-11-07T11:15:11</t>
-  </si>
-  <si>
-    <t>2017-11-07T01:32:11</t>
-  </si>
-  <si>
-    <t>193.198.70.84</t>
-  </si>
-  <si>
-    <t>35.30219693882553, 127.14648221893185</t>
-  </si>
-  <si>
-    <t>수트</t>
-  </si>
-  <si>
-    <t>2017-11-13T05:18:29</t>
-  </si>
-  <si>
-    <t>2017-11-09T03:28:29</t>
-  </si>
-  <si>
-    <t>230.250.155.4</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>35.29706664216842, 128.3612301978423</t>
-  </si>
-  <si>
-    <t>2017-11-13T23:19:29</t>
-  </si>
-  <si>
-    <t>2017-11-10T23:15:29</t>
-  </si>
-  <si>
-    <t>246.158.150.193</t>
-  </si>
-  <si>
-    <t>35.779125040380016, 127.75099764954581</t>
-  </si>
-  <si>
-    <t>2017-11-05T00:16:58</t>
-  </si>
-  <si>
-    <t>2017-11-04T20:38:58</t>
-  </si>
-  <si>
-    <t>96.7.37.144</t>
-  </si>
-  <si>
-    <t>37.40789435127714, 126.05827428381714</t>
-  </si>
-  <si>
-    <t>2017-11-07T00:43:09</t>
-  </si>
-  <si>
-    <t>2017-11-02T19:50:09</t>
-  </si>
-  <si>
-    <t>205.28.195.79</t>
-  </si>
-  <si>
-    <t>36.077851040805484, 128.75372618836693</t>
-  </si>
-  <si>
-    <t>2017-11-12T08:40:08</t>
-  </si>
-  <si>
-    <t>2017-11-09T17:10:08</t>
-  </si>
-  <si>
-    <t>114.136.56.2</t>
-  </si>
-  <si>
-    <t>36.48704797751413, 126.6969369579494</t>
-  </si>
-  <si>
-    <t>2017-11-04T01:56:01</t>
-  </si>
-  <si>
-    <t>2017-11-01T13:52:01</t>
+    <t>2017-11-12T05:21:29</t>
+  </si>
+  <si>
+    <t>2017-11-11T17:29:29</t>
+  </si>
+  <si>
+    <t>24.141.67.148</t>
+  </si>
+  <si>
+    <t>37.20594717370683, 127.92177764156956</t>
+  </si>
+  <si>
+    <t>2017-11-06T02:02:07</t>
+  </si>
+  <si>
+    <t>2017-11-05T20:29:07</t>
+  </si>
+  <si>
+    <t>44.4.251.104</t>
+  </si>
+  <si>
+    <t>36.08694571268556, 127.23075350212</t>
+  </si>
+  <si>
+    <t>2017-11-10T22:42:34</t>
+  </si>
+  <si>
+    <t>2017-11-08T09:42:34</t>
+  </si>
+  <si>
+    <t>17.99.74.211</t>
+  </si>
+  <si>
+    <t>36.37586531164656, 126.8124261263109</t>
+  </si>
+  <si>
+    <t>2017-11-11T05:03:14</t>
+  </si>
+  <si>
+    <t>2017-11-10T00:41:14</t>
   </si>
   <si>
     <t>시티</t>
   </si>
   <si>
-    <t>229.140.131.222</t>
-  </si>
-  <si>
-    <t>35.95241916226646, 126.19617819934207</t>
-  </si>
-  <si>
-    <t>2017-11-14T23:32:55</t>
-  </si>
-  <si>
-    <t>2017-11-10T15:39:55</t>
-  </si>
-  <si>
-    <t>99.91.170.16</t>
-  </si>
-  <si>
-    <t>울산광역시</t>
-  </si>
-  <si>
-    <t>37.77159638148331, 129.01728642206382</t>
-  </si>
-  <si>
-    <t>2017-11-10T13:47:53</t>
-  </si>
-  <si>
-    <t>2017-11-09T14:50:53</t>
-  </si>
-  <si>
-    <t>20.123.245.214</t>
-  </si>
-  <si>
-    <t>35.5442002376651, 129.41859537141949</t>
-  </si>
-  <si>
-    <t>2017-11-10T18:20:28</t>
-  </si>
-  <si>
-    <t>2017-11-08T10:27:28</t>
-  </si>
-  <si>
-    <t>47.144.234.168</t>
-  </si>
-  <si>
-    <t>35.065572757040094, 129.03874692593698</t>
-  </si>
-  <si>
-    <t>2017-11-04T17:49:56</t>
-  </si>
-  <si>
-    <t>2017-11-03T20:24:56</t>
-  </si>
-  <si>
-    <t>183.105.66.209</t>
-  </si>
-  <si>
-    <t>36.329515956982675, 129.3451408956394</t>
-  </si>
-  <si>
-    <t>2017-11-08T00:50:27</t>
-  </si>
-  <si>
-    <t>2017-11-04T05:32:27</t>
-  </si>
-  <si>
-    <t>27.147.153.211</t>
-  </si>
-  <si>
-    <t>36.529942877901696, 127.35651155748744</t>
-  </si>
-  <si>
-    <t>2017-11-05T05:03:26</t>
-  </si>
-  <si>
-    <t>2017-11-02T13:19:26</t>
-  </si>
-  <si>
-    <t>123.98.207.116</t>
-  </si>
-  <si>
-    <t>35.026188551993776, 126.46516312933772</t>
-  </si>
-  <si>
-    <t>2017-11-04T18:12:07</t>
-  </si>
-  <si>
-    <t>2017-11-04T02:16:07</t>
-  </si>
-  <si>
-    <t>158.178.232.9</t>
-  </si>
-  <si>
-    <t>35.482103793610165, 126.2470485740534</t>
-  </si>
-  <si>
-    <t>2017-11-14T05:05:55</t>
-  </si>
-  <si>
-    <t>2017-11-10T16:14:55</t>
-  </si>
-  <si>
-    <t>52.171.239.14</t>
-  </si>
-  <si>
-    <t>37.26359959190257, 126.74869569415385</t>
-  </si>
-  <si>
-    <t>2017-11-08T10:50:38</t>
-  </si>
-  <si>
-    <t>2017-11-07T18:24:38</t>
-  </si>
-  <si>
-    <t>89.210.213.227</t>
-  </si>
-  <si>
-    <t>36.5349517039517, 127.49478668041986</t>
-  </si>
-  <si>
-    <t>2017-11-06T00:10:21</t>
-  </si>
-  <si>
-    <t>2017-11-04T11:48:21</t>
-  </si>
-  <si>
-    <t>164.141.204.177</t>
-  </si>
-  <si>
-    <t>37.59737780622949, 126.7120648155864</t>
-  </si>
-  <si>
-    <t>2017-11-03T11:55:38</t>
-  </si>
-  <si>
-    <t>2017-11-03T01:42:38</t>
-  </si>
-  <si>
-    <t>152.136.3.129</t>
-  </si>
-  <si>
-    <t>36.78817753074974, 128.159280759304</t>
-  </si>
-  <si>
-    <t>2017-11-08T10:19:21</t>
-  </si>
-  <si>
-    <t>2017-11-07T03:44:21</t>
-  </si>
-  <si>
-    <t>55.165.131.9</t>
-  </si>
-  <si>
-    <t>35.01506669708026, 127.47582075972228</t>
-  </si>
-  <si>
-    <t>2017-11-08T22:17:55</t>
-  </si>
-  <si>
-    <t>2017-11-08T03:43:55</t>
+    <t>183.211.18.89</t>
+  </si>
+  <si>
+    <t>36.25270428381599, 127.71299124731044</t>
+  </si>
+  <si>
+    <t>2017-11-12T23:45:30</t>
+  </si>
+  <si>
+    <t>2017-11-12T20:54:30</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1248,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1263,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
@@ -1278,13 +1281,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1298,46 +1301,46 @@
         <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1345,13 +1348,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1360,22 +1363,22 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
       <c r="J4" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
         <v>41</v>
@@ -1384,13 +1387,13 @@
         <v>25</v>
       </c>
       <c r="O4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
         <v>42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1398,52 +1401,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J5" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
         <v>25</v>
       </c>
       <c r="O5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1451,22 +1454,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>53</v>
@@ -1475,28 +1478,28 @@
         <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1504,52 +1507,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="n">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" t="n">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1557,52 +1560,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="n">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>66</v>
       </c>
-      <c r="I8" t="s">
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="n">
-        <v>15000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1613,25 +1616,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J9" t="n">
         <v>12000</v>
@@ -1640,19 +1643,19 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
         <v>74</v>
-      </c>
-      <c r="M9" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>47</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -1663,52 +1666,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>25</v>
       </c>
       <c r="O10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1716,52 +1719,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
         <v>85</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="O11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
         <v>86</v>
       </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17000</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="Q11" t="n">
         <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1769,52 +1772,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J12" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N12" t="s">
         <v>25</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1825,46 +1828,46 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="K13" t="n">
         <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
       </c>
       <c r="O13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="n">
         <v>3</v>
@@ -1875,10 +1878,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D14" t="n">
         <v>33</v>
@@ -1887,40 +1890,40 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
         <v>99</v>
       </c>
-      <c r="J14" t="n">
-        <v>17000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" t="s">
-        <v>106</v>
-      </c>
       <c r="N14" t="s">
         <v>25</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1928,52 +1931,52 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1981,49 +1984,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="J16" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
       </c>
       <c r="O16" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
@@ -2034,49 +2037,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J17" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
       </c>
       <c r="O17" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q17" t="n">
         <v>4</v>
@@ -2087,49 +2090,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="J18" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
         <v>25</v>
       </c>
       <c r="O18" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
@@ -2140,52 +2143,52 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="K19" t="n">
         <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>43</v>
+      </c>
+      <c r="P19" t="s">
         <v>130</v>
       </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" t="n">
-        <v>42</v>
-      </c>
-      <c r="P19" t="s">
-        <v>131</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2193,52 +2196,52 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" t="n">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" t="s">
         <v>133</v>
       </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
         <v>134</v>
       </c>
-      <c r="I20" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23000</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="Q20" t="n">
         <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>43</v>
-      </c>
-      <c r="P20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2246,37 +2249,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="J21" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="K21" t="n">
         <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s">
         <v>140</v>
@@ -2285,7 +2288,7 @@
         <v>25</v>
       </c>
       <c r="O21" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -2305,43 +2308,43 @@
         <v>142</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
         <v>143</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
         <v>144</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="s">
         <v>145</v>
-      </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" t="n">
-        <v>46</v>
-      </c>
-      <c r="P22" t="s">
-        <v>146</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2352,52 +2355,52 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="n">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
         <v>147</v>
       </c>
-      <c r="D23" t="n">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" t="s">
         <v>148</v>
       </c>
-      <c r="I23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11000</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="s">
         <v>149</v>
       </c>
-      <c r="M23" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>49</v>
-      </c>
-      <c r="P23" t="s">
-        <v>151</v>
-      </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2405,52 +2408,52 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="J24" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="K24" t="n">
         <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s">
         <v>25</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2458,52 +2461,52 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" t="s">
         <v>157</v>
       </c>
-      <c r="D25" t="n">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" t="s">
         <v>158</v>
       </c>
-      <c r="I25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" t="n">
-        <v>19000</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12</v>
+      </c>
+      <c r="P25" t="s">
         <v>159</v>
       </c>
-      <c r="M25" t="s">
-        <v>160</v>
-      </c>
-      <c r="N25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5</v>
-      </c>
-      <c r="P25" t="s">
-        <v>161</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2511,52 +2514,52 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" t="s">
+        <v>162</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
         <v>163</v>
       </c>
-      <c r="I26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>7</v>
-      </c>
-      <c r="L26" t="s">
-        <v>54</v>
-      </c>
-      <c r="M26" t="s">
-        <v>164</v>
-      </c>
-      <c r="N26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>14</v>
-      </c>
-      <c r="P26" t="s">
-        <v>165</v>
-      </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2564,40 +2567,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="n">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" t="s">
         <v>166</v>
       </c>
-      <c r="D27" t="n">
+      <c r="I27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" t="s">
-        <v>61</v>
-      </c>
       <c r="J27" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="K27" t="n">
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N27" t="s">
         <v>25</v>
@@ -2606,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q27" t="n">
         <v>3</v>
@@ -2617,49 +2620,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
         <v>170</v>
       </c>
-      <c r="C28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" t="n">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" t="s">
-        <v>172</v>
-      </c>
       <c r="I28" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J28" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="K28" t="n">
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2670,52 +2673,52 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29" t="s">
         <v>175</v>
       </c>
-      <c r="D29" t="n">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>26</v>
+      </c>
+      <c r="P29" t="s">
         <v>176</v>
       </c>
-      <c r="I29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" t="n">
-        <v>26000</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" t="s">
-        <v>177</v>
-      </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" t="n">
-        <v>24</v>
-      </c>
-      <c r="P29" t="s">
-        <v>178</v>
-      </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2723,52 +2726,52 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
         <v>180</v>
       </c>
-      <c r="I30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" t="n">
-        <v>17000</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>31</v>
+      </c>
+      <c r="P30" t="s">
         <v>181</v>
       </c>
-      <c r="N30" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" t="n">
-        <v>29</v>
-      </c>
-      <c r="P30" t="s">
-        <v>182</v>
-      </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2776,49 +2779,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
         <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="J31" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="K31" t="n">
         <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
+        <v>184</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
         <v>185</v>
-      </c>
-      <c r="N31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" t="n">
-        <v>30</v>
-      </c>
-      <c r="P31" t="s">
-        <v>186</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2829,40 +2832,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="n">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
         <v>187</v>
       </c>
-      <c r="D32" t="n">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s">
-        <v>188</v>
-      </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="J32" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N32" t="s">
         <v>25</v>
@@ -2871,10 +2874,10 @@
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2882,52 +2885,52 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" t="n">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
         <v>191</v>
       </c>
-      <c r="D33" t="n">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>17000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" t="s">
         <v>192</v>
       </c>
-      <c r="I33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
         <v>193</v>
       </c>
-      <c r="M33" t="s">
-        <v>194</v>
-      </c>
-      <c r="N33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" t="n">
-        <v>50</v>
-      </c>
-      <c r="P33" t="s">
-        <v>195</v>
-      </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2935,52 +2938,52 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D34" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
       </c>
       <c r="H34" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+      <c r="M34" t="s">
+        <v>197</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
         <v>198</v>
       </c>
-      <c r="I34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7</v>
-      </c>
-      <c r="L34" t="s">
-        <v>159</v>
-      </c>
-      <c r="M34" t="s">
-        <v>199</v>
-      </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" t="n">
-        <v>6</v>
-      </c>
-      <c r="P34" t="s">
-        <v>200</v>
-      </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2988,52 +2991,52 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" t="n">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" t="s">
         <v>201</v>
       </c>
-      <c r="D35" t="n">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="N35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" t="s">
         <v>202</v>
       </c>
-      <c r="I35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" t="n">
-        <v>23000</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>100</v>
-      </c>
-      <c r="M35" t="s">
-        <v>203</v>
-      </c>
-      <c r="N35" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" t="n">
-        <v>9</v>
-      </c>
-      <c r="P35" t="s">
-        <v>204</v>
-      </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3044,25 +3047,25 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D36" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
         <v>10000</v>
@@ -3071,22 +3074,22 @@
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="M36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N36" t="s">
         <v>25</v>
       </c>
       <c r="O36" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3094,49 +3097,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J37" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s">
         <v>25</v>
       </c>
       <c r="O37" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q37" t="n">
         <v>4</v>
@@ -3147,52 +3150,52 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" t="s">
+        <v>213</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
         <v>214</v>
       </c>
-      <c r="I38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" t="n">
-        <v>27000</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="Q38" t="n">
         <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>159</v>
-      </c>
-      <c r="M38" t="s">
-        <v>215</v>
-      </c>
-      <c r="N38" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" t="n">
-        <v>22</v>
-      </c>
-      <c r="P38" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3200,52 +3203,52 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" t="n">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" t="s">
         <v>217</v>
       </c>
-      <c r="C39" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" t="n">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" t="s">
-        <v>219</v>
-      </c>
       <c r="I39" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="J39" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="K39" t="n">
         <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N39" t="s">
         <v>25</v>
       </c>
       <c r="O39" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3253,52 +3256,52 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J40" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="K40" t="n">
         <v>7</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N40" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="O40" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3306,52 +3309,52 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D41" t="n">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="E41" t="s">
-        <v>29</v>
-      </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N41" t="s">
         <v>25</v>
       </c>
       <c r="O41" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3359,40 +3362,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="H42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J42" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="K42" t="n">
         <v>7</v>
       </c>
       <c r="L42" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="M42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N42" t="s">
         <v>25</v>
@@ -3401,10 +3404,10 @@
         <v>4</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3412,52 +3415,52 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D43" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="K43" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" t="s">
+        <v>121</v>
+      </c>
+      <c r="M43" t="s">
+        <v>234</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P43" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q43" t="n">
         <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>111</v>
-      </c>
-      <c r="M43" t="s">
-        <v>237</v>
-      </c>
-      <c r="N43" t="s">
-        <v>63</v>
-      </c>
-      <c r="O43" t="n">
-        <v>18</v>
-      </c>
-      <c r="P43" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3465,52 +3468,52 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="n">
+        <v>28000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>121</v>
+      </c>
+      <c r="M44" t="s">
         <v>239</v>
       </c>
-      <c r="D44" t="n">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9</v>
+      </c>
+      <c r="P44" t="s">
         <v>240</v>
       </c>
-      <c r="I44" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>23000</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7</v>
-      </c>
-      <c r="L44" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" t="s">
-        <v>241</v>
-      </c>
-      <c r="N44" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" t="n">
-        <v>19</v>
-      </c>
-      <c r="P44" t="s">
-        <v>242</v>
-      </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3518,52 +3521,52 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" t="s">
+        <v>138</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>7</v>
+      </c>
+      <c r="L45" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" t="s">
+        <v>243</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>17</v>
+      </c>
+      <c r="P45" t="s">
         <v>244</v>
       </c>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" t="n">
-        <v>18000</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>87</v>
-      </c>
-      <c r="M45" t="s">
-        <v>245</v>
-      </c>
-      <c r="N45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" t="n">
-        <v>21</v>
-      </c>
-      <c r="P45" t="s">
-        <v>246</v>
-      </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3571,52 +3574,52 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D46" t="n">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="K46" t="n">
         <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N46" t="s">
         <v>25</v>
       </c>
       <c r="O46" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3624,37 +3627,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
+        <v>251</v>
+      </c>
+      <c r="I47" t="s">
+        <v>138</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>252</v>
-      </c>
-      <c r="I47" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" t="n">
-        <v>13000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7</v>
-      </c>
-      <c r="L47" t="s">
-        <v>23</v>
       </c>
       <c r="M47" t="s">
         <v>253</v>
@@ -3669,7 +3672,7 @@
         <v>254</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3677,37 +3680,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>255</v>
       </c>
       <c r="D48" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
         <v>256</v>
       </c>
       <c r="I48" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="J48" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="M48" t="s">
         <v>257</v>
@@ -3716,13 +3719,13 @@
         <v>25</v>
       </c>
       <c r="O48" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="P48" t="s">
         <v>258</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3730,22 +3733,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>259</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
         <v>260</v>
@@ -3754,13 +3757,13 @@
         <v>22</v>
       </c>
       <c r="J49" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M49" t="s">
         <v>261</v>
@@ -3769,13 +3772,13 @@
         <v>25</v>
       </c>
       <c r="O49" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P49" t="s">
         <v>262</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3783,37 +3786,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
         <v>263</v>
       </c>
       <c r="D50" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="H50" t="s">
         <v>264</v>
       </c>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J50" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="K50" t="n">
         <v>7</v>
       </c>
       <c r="L50" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
         <v>265</v>
@@ -3822,13 +3825,13 @@
         <v>25</v>
       </c>
       <c r="O50" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P50" t="s">
         <v>266</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3836,52 +3839,52 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="J51" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" t="s">
+        <v>270</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" t="n">
         <v>47</v>
       </c>
-      <c r="M51" t="s">
-        <v>269</v>
-      </c>
-      <c r="N51" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" t="n">
-        <v>45</v>
-      </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Week1_Kibana/data/week1_sample.xlsx
+++ b/Week1_Kibana/data/week1_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>결제카드</t>
   </si>
@@ -68,769 +68,763 @@
     <t>우리</t>
   </si>
   <si>
-    <t>234.185.33.16</t>
+    <t>244.244.139.5</t>
+  </si>
+  <si>
+    <t>여성</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>g마켓</t>
+  </si>
+  <si>
+    <t>37.38928130535316, 128.65566286012063</t>
+  </si>
+  <si>
+    <t>부재중</t>
+  </si>
+  <si>
+    <t>스커트</t>
+  </si>
+  <si>
+    <t>2017-11-04T14:26:24</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>2017-11-04T04:39:24</t>
+  </si>
+  <si>
+    <t>175.186.138.230</t>
   </si>
   <si>
     <t>남성</t>
   </si>
   <si>
+    <t>충청남도</t>
+  </si>
+  <si>
+    <t>옥션</t>
+  </si>
+  <si>
+    <t>36.48923141032772, 126.66512798001837</t>
+  </si>
+  <si>
+    <t>주소 오류</t>
+  </si>
+  <si>
+    <t>팬츠</t>
+  </si>
+  <si>
+    <t>2017-11-07T03:29:49</t>
+  </si>
+  <si>
+    <t>2017-11-07T02:27:49</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>212.205.105.118</t>
+  </si>
+  <si>
+    <t>전라남도</t>
+  </si>
+  <si>
+    <t>11번가</t>
+  </si>
+  <si>
+    <t>36.9414559890189, 129.91755213672073</t>
+  </si>
+  <si>
+    <t>스웨터</t>
+  </si>
+  <si>
+    <t>2017-11-05T16:08:05</t>
+  </si>
+  <si>
+    <t>2017-11-01T21:10:05</t>
+  </si>
+  <si>
+    <t>국민</t>
+  </si>
+  <si>
+    <t>161.97.239.73</t>
+  </si>
+  <si>
+    <t>세종특별자치시</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+  </si>
+  <si>
+    <t>36.84514062918229, 128.49803694841236</t>
+  </si>
+  <si>
+    <t>티셔츠</t>
+  </si>
+  <si>
+    <t>2017-11-12T19:06:19</t>
+  </si>
+  <si>
+    <t>2017-11-12T11:30:19</t>
+  </si>
+  <si>
+    <t>33.112.103.234</t>
+  </si>
+  <si>
+    <t>울산광역시</t>
+  </si>
+  <si>
+    <t>35.87205754248088, 129.4677760692362</t>
+  </si>
+  <si>
+    <t>상품 이상</t>
+  </si>
+  <si>
+    <t>코트</t>
+  </si>
+  <si>
+    <t>2017-11-14T21:18:58</t>
+  </si>
+  <si>
+    <t>2017-11-12T18:11:58</t>
+  </si>
+  <si>
+    <t>149.181.185.197</t>
+  </si>
+  <si>
+    <t>35.56305485547159, 129.56736778944324</t>
+  </si>
+  <si>
+    <t>니트</t>
+  </si>
+  <si>
+    <t>2017-11-11T23:42:44</t>
+  </si>
+  <si>
+    <t>2017-11-08T22:29:44</t>
+  </si>
+  <si>
+    <t>108.120.231.26</t>
+  </si>
+  <si>
+    <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>위메프</t>
+  </si>
+  <si>
+    <t>36.36846627952666, 127.65590971283419</t>
+  </si>
+  <si>
+    <t>2017-11-10T18:59:52</t>
+  </si>
+  <si>
+    <t>2017-11-07T01:22:52</t>
+  </si>
+  <si>
+    <t>14.72.124.37</t>
+  </si>
+  <si>
+    <t>36.683500965216425, 127.02986711316085</t>
+  </si>
+  <si>
+    <t>관리실에 맡김</t>
+  </si>
+  <si>
+    <t>2017-11-15T03:38:42</t>
+  </si>
+  <si>
+    <t>2017-11-11T06:25:42</t>
+  </si>
+  <si>
+    <t>49.88.33.30</t>
+  </si>
+  <si>
+    <t>경상북도</t>
+  </si>
+  <si>
+    <t>37.97498618992064, 127.23511080013618</t>
+  </si>
+  <si>
+    <t>가디건</t>
+  </si>
+  <si>
+    <t>2017-11-10T17:56:04</t>
+  </si>
+  <si>
+    <t>2017-11-09T01:14:04</t>
+  </si>
+  <si>
+    <t>59.245.175.213</t>
+  </si>
+  <si>
+    <t>36.809288509368045, 129.2077880269131</t>
+  </si>
+  <si>
+    <t>2017-11-06T05:36:25</t>
+  </si>
+  <si>
+    <t>2017-11-02T20:24:25</t>
+  </si>
+  <si>
+    <t>21.53.18.228</t>
+  </si>
+  <si>
+    <t>37.351699929924685, 127.96125402219533</t>
+  </si>
+  <si>
+    <t>베스트</t>
+  </si>
+  <si>
+    <t>2017-11-12T22:25:28</t>
+  </si>
+  <si>
+    <t>2017-11-12T08:06:28</t>
+  </si>
+  <si>
+    <t>100.94.218.209</t>
+  </si>
+  <si>
+    <t>강원도</t>
+  </si>
+  <si>
+    <t>35.931176584393036, 129.03920166326193</t>
+  </si>
+  <si>
+    <t>시간 내에 배송 못함</t>
+  </si>
+  <si>
+    <t>2017-11-03T07:57:23</t>
+  </si>
+  <si>
+    <t>2017-11-02T00:13:23</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>212.233.244.205</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t>35.05273967823759, 128.1893505343425</t>
+  </si>
+  <si>
+    <t>환불 요청</t>
+  </si>
+  <si>
+    <t>2017-11-12T01:54:37</t>
+  </si>
+  <si>
+    <t>2017-11-08T03:37:37</t>
+  </si>
+  <si>
+    <t>86.183.142.18</t>
+  </si>
+  <si>
     <t>서울특별시</t>
   </si>
   <si>
-    <t>위메프</t>
-  </si>
-  <si>
-    <t>36.19200904870001, 127.12382542582914</t>
-  </si>
-  <si>
-    <t>부재중</t>
-  </si>
-  <si>
-    <t>니트</t>
-  </si>
-  <si>
-    <t>2017-11-08T20:17:58</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>2017-11-07T21:20:58</t>
-  </si>
-  <si>
-    <t>하나</t>
-  </si>
-  <si>
-    <t>26.185.51.137</t>
-  </si>
-  <si>
-    <t>울산광역시</t>
-  </si>
-  <si>
-    <t>11번가</t>
-  </si>
-  <si>
-    <t>37.21857966629423, 127.08146955533866</t>
+    <t>36.65850667204326, 129.5787363795123</t>
+  </si>
+  <si>
+    <t>남방</t>
+  </si>
+  <si>
+    <t>2017-11-03T10:09:32</t>
+  </si>
+  <si>
+    <t>2017-11-02T09:53:32</t>
+  </si>
+  <si>
+    <t>202.119.26.32</t>
+  </si>
+  <si>
+    <t>35.67435316785277, 129.1571360902592</t>
+  </si>
+  <si>
+    <t>청바지</t>
+  </si>
+  <si>
+    <t>2017-11-07T07:04:45</t>
+  </si>
+  <si>
+    <t>2017-11-04T03:14:45</t>
+  </si>
+  <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>77.8.18.164</t>
+  </si>
+  <si>
+    <t>35.341399325268135, 127.80288972499537</t>
+  </si>
+  <si>
+    <t>2017-11-16T15:42:37</t>
+  </si>
+  <si>
+    <t>2017-11-11T21:30:37</t>
+  </si>
+  <si>
+    <t>68.243.238.185</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
+    <t>37.67827886657621, 128.61488881412117</t>
+  </si>
+  <si>
+    <t>2017-11-08T04:28:41</t>
+  </si>
+  <si>
+    <t>2017-11-03T20:26:41</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>196.237.141.227</t>
+  </si>
+  <si>
+    <t>광주광역시</t>
+  </si>
+  <si>
+    <t>37.54749367846817, 128.87170076397396</t>
+  </si>
+  <si>
+    <t>점퍼</t>
+  </si>
+  <si>
+    <t>2017-11-07T14:08:55</t>
+  </si>
+  <si>
+    <t>2017-11-07T08:47:55</t>
+  </si>
+  <si>
+    <t>33.213.42.104</t>
+  </si>
+  <si>
+    <t>36.23032338563832, 127.59320489488435</t>
+  </si>
+  <si>
+    <t>수트</t>
+  </si>
+  <si>
+    <t>2017-11-11T00:12:12</t>
+  </si>
+  <si>
+    <t>예약</t>
+  </si>
+  <si>
+    <t>2017-11-08T06:41:12</t>
+  </si>
+  <si>
+    <t>38.74.101.144</t>
+  </si>
+  <si>
+    <t>36.12955958354989, 128.27206387326962</t>
+  </si>
+  <si>
+    <t>2017-11-04T12:33:20</t>
+  </si>
+  <si>
+    <t>2017-11-01T16:54:20</t>
+  </si>
+  <si>
+    <t>147.138.82.112</t>
+  </si>
+  <si>
+    <t>35.154766244397585, 127.62224951988918</t>
+  </si>
+  <si>
+    <t>2017-11-13T05:29:33</t>
+  </si>
+  <si>
+    <t>2017-11-11T15:23:33</t>
+  </si>
+  <si>
+    <t>163.149.152.15</t>
+  </si>
+  <si>
+    <t>35.561189868109324, 129.71167649002174</t>
+  </si>
+  <si>
+    <t>2017-11-13T04:59:14</t>
+  </si>
+  <si>
+    <t>2017-11-12T09:28:14</t>
+  </si>
+  <si>
+    <t>140.15.250.193</t>
+  </si>
+  <si>
+    <t>35.393982811266724, 128.61628926428736</t>
+  </si>
+  <si>
+    <t>2017-11-05T09:37:32</t>
+  </si>
+  <si>
+    <t>2017-11-03T02:51:32</t>
+  </si>
+  <si>
+    <t>72.238.87.18</t>
+  </si>
+  <si>
+    <t>37.81740561523278, 128.6592235241437</t>
   </si>
   <si>
     <t>자켓</t>
   </si>
   <si>
-    <t>2017-11-12T06:06:32</t>
-  </si>
-  <si>
-    <t>2017-11-09T19:14:32</t>
-  </si>
-  <si>
-    <t>롯데</t>
-  </si>
-  <si>
-    <t>209.153.69.225</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>36.14867309426788, 126.4458354320774</t>
-  </si>
-  <si>
-    <t>환불 요청</t>
-  </si>
-  <si>
-    <t>남방</t>
-  </si>
-  <si>
-    <t>2017-11-04T10:55:19</t>
-  </si>
-  <si>
-    <t>2017-11-03T04:28:19</t>
-  </si>
-  <si>
-    <t>국민</t>
-  </si>
-  <si>
-    <t>168.22.77.38</t>
-  </si>
-  <si>
-    <t>여성</t>
-  </si>
-  <si>
-    <t>37.77207159772037, 126.98744760332342</t>
-  </si>
-  <si>
-    <t>상품 이상</t>
-  </si>
-  <si>
-    <t>스커트</t>
-  </si>
-  <si>
-    <t>2017-11-13T18:01:06</t>
-  </si>
-  <si>
-    <t>2017-11-12T11:49:06</t>
-  </si>
-  <si>
-    <t>128.93.98.172</t>
-  </si>
-  <si>
-    <t>부산광역시</t>
-  </si>
-  <si>
-    <t>35.351958914358725, 127.08757264094429</t>
-  </si>
-  <si>
-    <t>2017-11-03T10:09:39</t>
-  </si>
-  <si>
-    <t>2017-11-02T23:03:39</t>
-  </si>
-  <si>
-    <t>96.76.212.77</t>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-  </si>
-  <si>
-    <t>36.71187334490377, 126.08251974690016</t>
-  </si>
-  <si>
-    <t>2017-11-04T00:12:02</t>
-  </si>
-  <si>
-    <t>2017-11-03T07:30:02</t>
-  </si>
-  <si>
-    <t>191.60.9.186</t>
+    <t>2017-11-03T18:49:43</t>
+  </si>
+  <si>
+    <t>2017-11-02T03:44:43</t>
+  </si>
+  <si>
+    <t>188.2.250.147</t>
+  </si>
+  <si>
+    <t>35.52581011716691, 127.08340453646356</t>
+  </si>
+  <si>
+    <t>2017-11-14T03:51:11</t>
+  </si>
+  <si>
+    <t>2017-11-09T10:13:11</t>
+  </si>
+  <si>
+    <t>58.37.136.179</t>
+  </si>
+  <si>
+    <t>35.96334598205483, 129.56086464810178</t>
+  </si>
+  <si>
+    <t>블라우스</t>
+  </si>
+  <si>
+    <t>2017-11-09T00:43:52</t>
+  </si>
+  <si>
+    <t>2017-11-07T05:54:52</t>
+  </si>
+  <si>
+    <t>158.138.71.47</t>
+  </si>
+  <si>
+    <t>35.60613364689797, 127.13495327852871</t>
+  </si>
+  <si>
+    <t>2017-11-13T22:28:23</t>
+  </si>
+  <si>
+    <t>2017-11-09T17:34:23</t>
+  </si>
+  <si>
+    <t>119.144.190.255</t>
+  </si>
+  <si>
+    <t>35.16390721987136, 128.79019692325411</t>
+  </si>
+  <si>
+    <t>2017-11-10T16:53:20</t>
+  </si>
+  <si>
+    <t>2017-11-08T05:48:20</t>
+  </si>
+  <si>
+    <t>233.178.43.22</t>
+  </si>
+  <si>
+    <t>35.95426400525436, 127.12215983125905</t>
+  </si>
+  <si>
+    <t>2017-11-14T00:21:17</t>
+  </si>
+  <si>
+    <t>2017-11-09T15:32:17</t>
+  </si>
+  <si>
+    <t>76.159.237.118</t>
+  </si>
+  <si>
+    <t>티몬</t>
+  </si>
+  <si>
+    <t>37.03584740133396, 127.67660237175066</t>
+  </si>
+  <si>
+    <t>2017-11-09T12:19:29</t>
+  </si>
+  <si>
+    <t>2017-11-07T10:55:29</t>
+  </si>
+  <si>
+    <t>시티</t>
+  </si>
+  <si>
+    <t>62.176.109.100</t>
+  </si>
+  <si>
+    <t>37.171898085300775, 127.3049364653456</t>
+  </si>
+  <si>
+    <t>2017-11-04T09:57:28</t>
+  </si>
+  <si>
+    <t>2017-11-01T21:28:28</t>
+  </si>
+  <si>
+    <t>119.216.207.246</t>
+  </si>
+  <si>
+    <t>인천광역시</t>
+  </si>
+  <si>
+    <t>36.916641152983175, 128.76199599646026</t>
+  </si>
+  <si>
+    <t>2017-11-10T05:52:40</t>
+  </si>
+  <si>
+    <t>2017-11-10T03:05:40</t>
+  </si>
+  <si>
+    <t>228.203.53.126</t>
+  </si>
+  <si>
+    <t>37.67156579492673, 128.77349601243833</t>
+  </si>
+  <si>
+    <t>2017-11-06T10:39:27</t>
+  </si>
+  <si>
+    <t>2017-11-01T23:49:27</t>
+  </si>
+  <si>
+    <t>236.154.88.161</t>
+  </si>
+  <si>
+    <t>36.79497545666526, 127.77455135871779</t>
+  </si>
+  <si>
+    <t>2017-11-01T21:57:43</t>
+  </si>
+  <si>
+    <t>2017-11-01T11:07:43</t>
+  </si>
+  <si>
+    <t>78.195.134.77</t>
   </si>
   <si>
     <t>경상남도</t>
   </si>
   <si>
-    <t>티몬</t>
-  </si>
-  <si>
-    <t>37.32897203747714, 127.38858462310444</t>
-  </si>
-  <si>
-    <t>티셔츠</t>
-  </si>
-  <si>
-    <t>2017-11-08T12:05:03</t>
-  </si>
-  <si>
-    <t>2017-11-08T04:20:03</t>
-  </si>
-  <si>
-    <t>175.166.167.148</t>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-  </si>
-  <si>
-    <t>37.26277171619398, 126.02732265630732</t>
-  </si>
-  <si>
-    <t>관리실에 맡김</t>
-  </si>
-  <si>
-    <t>팬츠</t>
-  </si>
-  <si>
-    <t>2017-11-05T04:10:02</t>
-  </si>
-  <si>
-    <t>2017-11-01T15:31:02</t>
-  </si>
-  <si>
-    <t>197.62.25.41</t>
-  </si>
-  <si>
-    <t>37.174657922758, 126.96179188985936</t>
-  </si>
-  <si>
-    <t>점퍼</t>
-  </si>
-  <si>
-    <t>2017-11-07T09:24:33</t>
-  </si>
-  <si>
-    <t>2017-11-04T08:43:33</t>
-  </si>
-  <si>
-    <t>131.195.49.98</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>36.49432678941927, 126.18744291726514</t>
-  </si>
-  <si>
-    <t>베스트</t>
-  </si>
-  <si>
-    <t>2017-11-10T11:25:08</t>
-  </si>
-  <si>
-    <t>예약</t>
-  </si>
-  <si>
-    <t>2017-11-05T19:23:08</t>
-  </si>
-  <si>
-    <t>138.202.68.105</t>
-  </si>
-  <si>
-    <t>35.12004126292568, 127.84134503929798</t>
-  </si>
-  <si>
-    <t>2017-11-11T11:49:17</t>
-  </si>
-  <si>
-    <t>2017-11-10T02:05:17</t>
-  </si>
-  <si>
-    <t>169.24.251.124</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>36.140239372280384, 127.62413565002738</t>
-  </si>
-  <si>
-    <t>2017-11-04T07:07:37</t>
-  </si>
-  <si>
-    <t>2017-11-02T03:58:37</t>
-  </si>
-  <si>
-    <t>142.102.211.196</t>
-  </si>
-  <si>
-    <t>g마켓</t>
-  </si>
-  <si>
-    <t>37.153389241476994, 127.73297945588862</t>
-  </si>
-  <si>
-    <t>2017-11-06T20:43:04</t>
-  </si>
-  <si>
-    <t>2017-11-04T11:43:04</t>
-  </si>
-  <si>
-    <t>25.123.210.13</t>
-  </si>
-  <si>
-    <t>35.03475661918821, 127.8295512891989</t>
-  </si>
-  <si>
-    <t>스웨터</t>
-  </si>
-  <si>
-    <t>2017-11-10T01:54:36</t>
-  </si>
-  <si>
-    <t>2017-11-07T03:57:36</t>
-  </si>
-  <si>
-    <t>135.212.56.13</t>
-  </si>
-  <si>
-    <t>35.57728485070029, 126.8481193344959</t>
-  </si>
-  <si>
-    <t>원피스</t>
-  </si>
-  <si>
-    <t>2017-11-15T06:29:20</t>
-  </si>
-  <si>
-    <t>2017-11-12T05:18:20</t>
-  </si>
-  <si>
-    <t>5.157.46.194</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>옥션</t>
-  </si>
-  <si>
-    <t>35.14057732648772, 127.95660275774597</t>
-  </si>
-  <si>
-    <t>청바지</t>
-  </si>
-  <si>
-    <t>2017-11-02T00:50:52</t>
-  </si>
-  <si>
-    <t>2017-11-01T04:58:52</t>
-  </si>
-  <si>
-    <t>166.140.151.38</t>
-  </si>
-  <si>
-    <t>37.3196154888237, 127.1791864445214</t>
-  </si>
-  <si>
-    <t>시간 내에 배송 못함</t>
+    <t>36.52151867816701, 129.13561982445768</t>
+  </si>
+  <si>
+    <t>2017-11-11T17:48:50</t>
+  </si>
+  <si>
+    <t>2017-11-09T02:28:50</t>
+  </si>
+  <si>
+    <t>44.211.169.131</t>
+  </si>
+  <si>
+    <t>35.369587411432704, 127.14189036518933</t>
+  </si>
+  <si>
+    <t>2017-11-13T02:43:22</t>
+  </si>
+  <si>
+    <t>2017-11-12T19:42:22</t>
+  </si>
+  <si>
+    <t>147.13.59.204</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>35.469662025088184, 129.69751678696886</t>
   </si>
   <si>
     <t>셔츠</t>
   </si>
   <si>
-    <t>2017-11-09T19:48:16</t>
-  </si>
-  <si>
-    <t>2017-11-06T10:14:16</t>
-  </si>
-  <si>
-    <t>153.202.213.239</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>쿠팡</t>
-  </si>
-  <si>
-    <t>36.15902836587489, 127.2168178070515</t>
-  </si>
-  <si>
-    <t>수트</t>
-  </si>
-  <si>
-    <t>2017-11-11T01:28:43</t>
-  </si>
-  <si>
-    <t>2017-11-07T03:57:43</t>
-  </si>
-  <si>
-    <t>19.11.19.21</t>
-  </si>
-  <si>
-    <t>37.6319776201657, 126.4707025480293</t>
-  </si>
-  <si>
-    <t>2017-11-06T17:22:34</t>
-  </si>
-  <si>
-    <t>2017-11-04T13:40:34</t>
-  </si>
-  <si>
-    <t>16.75.136.212</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>35.63612209204471, 127.7492671991647</t>
-  </si>
-  <si>
-    <t>주소 오류</t>
-  </si>
-  <si>
-    <t>가디건</t>
-  </si>
-  <si>
-    <t>2017-11-09T23:31:36</t>
-  </si>
-  <si>
-    <t>2017-11-09T18:41:36</t>
-  </si>
-  <si>
-    <t>36.184.72.65</t>
-  </si>
-  <si>
-    <t>37.905630454022834, 126.10710058733761</t>
-  </si>
-  <si>
-    <t>2017-11-07T09:10:51</t>
-  </si>
-  <si>
-    <t>2017-11-04T16:59:51</t>
-  </si>
-  <si>
-    <t>140.110.183.29</t>
-  </si>
-  <si>
-    <t>36.114684781007384, 127.43424417355645</t>
-  </si>
-  <si>
-    <t>2017-11-12T20:34:10</t>
-  </si>
-  <si>
-    <t>2017-11-11T13:36:10</t>
-  </si>
-  <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>106.84.95.211</t>
-  </si>
-  <si>
-    <t>35.25121236426949, 126.25993112646294</t>
-  </si>
-  <si>
-    <t>2017-11-10T10:50:22</t>
-  </si>
-  <si>
-    <t>2017-11-09T02:48:22</t>
-  </si>
-  <si>
-    <t>125.152.68.81</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>36.668226892925944, 127.30600277494693</t>
-  </si>
-  <si>
-    <t>2017-11-05T20:46:44</t>
-  </si>
-  <si>
-    <t>2017-11-03T06:23:44</t>
-  </si>
-  <si>
-    <t>222.147.181.146</t>
-  </si>
-  <si>
-    <t>37.08276916488313, 126.81423349469469</t>
-  </si>
-  <si>
-    <t>2017-11-06T08:50:31</t>
-  </si>
-  <si>
-    <t>2017-11-05T15:36:31</t>
-  </si>
-  <si>
-    <t>246.79.46.198</t>
-  </si>
-  <si>
-    <t>강원도</t>
-  </si>
-  <si>
-    <t>37.93899262600462, 126.32878580468541</t>
-  </si>
-  <si>
-    <t>2017-11-10T09:33:47</t>
-  </si>
-  <si>
-    <t>2017-11-06T21:53:47</t>
-  </si>
-  <si>
-    <t>83.153.34.35</t>
-  </si>
-  <si>
-    <t>37.10174407033597, 127.5065433320267</t>
-  </si>
-  <si>
-    <t>2017-11-07T07:56:00</t>
-  </si>
-  <si>
-    <t>2017-11-04T17:44:00</t>
-  </si>
-  <si>
-    <t>109.124.95.44</t>
-  </si>
-  <si>
-    <t>35.300951778863315, 127.48182325019548</t>
-  </si>
-  <si>
-    <t>2017-11-12T06:54:50</t>
-  </si>
-  <si>
-    <t>2017-11-11T17:17:50</t>
-  </si>
-  <si>
-    <t>78.31.20.154</t>
-  </si>
-  <si>
-    <t>GS샵</t>
-  </si>
-  <si>
-    <t>35.992379515546546, 126.28097054717256</t>
-  </si>
-  <si>
-    <t>2017-11-05T06:57:42</t>
-  </si>
-  <si>
-    <t>2017-11-02T04:23:42</t>
-  </si>
-  <si>
-    <t>19.49.50.133</t>
-  </si>
-  <si>
-    <t>37.71797797503069, 127.73075144231835</t>
-  </si>
-  <si>
-    <t>2017-11-05T01:57:19</t>
-  </si>
-  <si>
-    <t>2017-11-02T16:57:19</t>
-  </si>
-  <si>
-    <t>128.180.69.132</t>
-  </si>
-  <si>
-    <t>35.48676976216273, 126.19502937474762</t>
-  </si>
-  <si>
-    <t>2017-11-10T07:38:17</t>
-  </si>
-  <si>
-    <t>2017-11-10T06:01:17</t>
-  </si>
-  <si>
-    <t>211.133.50.47</t>
-  </si>
-  <si>
-    <t>35.668861174202114, 126.64704336452132</t>
-  </si>
-  <si>
-    <t>2017-11-05T08:41:02</t>
-  </si>
-  <si>
-    <t>2017-11-04T21:51:02</t>
-  </si>
-  <si>
-    <t>151.207.229.242</t>
-  </si>
-  <si>
-    <t>36.122664669179464, 126.00513779743234</t>
+    <t>2017-11-10T09:54:56</t>
+  </si>
+  <si>
+    <t>2017-11-06T04:49:56</t>
+  </si>
+  <si>
+    <t>225.192.182.7</t>
+  </si>
+  <si>
+    <t>36.930404728916116, 129.94437742096642</t>
+  </si>
+  <si>
+    <t>2017-11-14T23:37:39</t>
+  </si>
+  <si>
+    <t>2017-11-10T14:28:39</t>
+  </si>
+  <si>
+    <t>114.128.88.60</t>
+  </si>
+  <si>
+    <t>36.56238177708115, 129.17980934262127</t>
+  </si>
+  <si>
+    <t>2017-11-09T14:32:54</t>
+  </si>
+  <si>
+    <t>2017-11-06T02:16:54</t>
+  </si>
+  <si>
+    <t>22.78.245.38</t>
+  </si>
+  <si>
+    <t>37.86690777123673, 127.29054020640284</t>
   </si>
   <si>
     <t>무인택배함에 보관</t>
   </si>
   <si>
-    <t>2017-11-05T12:07:53</t>
-  </si>
-  <si>
-    <t>2017-11-01T10:05:53</t>
-  </si>
-  <si>
-    <t>236.37.137.194</t>
-  </si>
-  <si>
-    <t>37.04802155408121, 126.8338401060271</t>
-  </si>
-  <si>
-    <t>2017-11-11T19:16:46</t>
-  </si>
-  <si>
-    <t>2017-11-09T09:49:46</t>
-  </si>
-  <si>
-    <t>66.138.202.77</t>
-  </si>
-  <si>
-    <t>35.418879888213446, 127.96834321763939</t>
-  </si>
-  <si>
-    <t>2017-11-03T20:43:25</t>
-  </si>
-  <si>
-    <t>2017-11-01T14:37:25</t>
-  </si>
-  <si>
-    <t>121.102.5.136</t>
-  </si>
-  <si>
-    <t>37.039539594075855, 127.24353474916487</t>
-  </si>
-  <si>
-    <t>2017-11-03T11:37:27</t>
-  </si>
-  <si>
-    <t>2017-11-02T13:48:27</t>
-  </si>
-  <si>
-    <t>30.147.149.219</t>
-  </si>
-  <si>
-    <t>37.30298591948346, 127.83348036839155</t>
-  </si>
-  <si>
-    <t>2017-11-12T21:45:01</t>
-  </si>
-  <si>
-    <t>2017-11-11T19:20:01</t>
-  </si>
-  <si>
-    <t>193.182.22.233</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>36.09962029221415, 127.46733012504906</t>
-  </si>
-  <si>
-    <t>2017-11-14T20:39:19</t>
-  </si>
-  <si>
-    <t>2017-11-11T15:26:19</t>
-  </si>
-  <si>
-    <t>109.39.142.24</t>
-  </si>
-  <si>
-    <t>37.96483034239731, 126.53391137468758</t>
-  </si>
-  <si>
-    <t>2017-11-11T21:15:41</t>
-  </si>
-  <si>
-    <t>2017-11-07T22:43:41</t>
-  </si>
-  <si>
-    <t>123.242.175.245</t>
-  </si>
-  <si>
-    <t>37.85959601811983, 127.8278132259522</t>
-  </si>
-  <si>
-    <t>2017-11-06T22:36:26</t>
-  </si>
-  <si>
-    <t>2017-11-06T00:46:26</t>
-  </si>
-  <si>
-    <t>214.70.60.205</t>
-  </si>
-  <si>
-    <t>36.77540999675508, 126.94536095027908</t>
-  </si>
-  <si>
-    <t>2017-11-16T14:38:22</t>
-  </si>
-  <si>
-    <t>2017-11-11T22:09:22</t>
-  </si>
-  <si>
-    <t>17.253.80.70</t>
-  </si>
-  <si>
-    <t>37.40521514321212, 126.24411903877565</t>
-  </si>
-  <si>
-    <t>2017-11-06T03:49:41</t>
-  </si>
-  <si>
-    <t>2017-11-03T07:59:41</t>
-  </si>
-  <si>
-    <t>13.28.143.114</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>35.28244829219282, 126.91146532489792</t>
-  </si>
-  <si>
-    <t>2017-11-02T23:47:19</t>
-  </si>
-  <si>
-    <t>2017-11-02T02:00:19</t>
-  </si>
-  <si>
-    <t>9.180.184.85</t>
-  </si>
-  <si>
-    <t>35.95219096028096, 126.66175975490306</t>
-  </si>
-  <si>
-    <t>2017-11-11T13:50:27</t>
-  </si>
-  <si>
-    <t>2017-11-09T16:41:27</t>
-  </si>
-  <si>
-    <t>236.80.84.120</t>
-  </si>
-  <si>
-    <t>36.0654269253112, 127.38699589403745</t>
-  </si>
-  <si>
-    <t>2017-11-09T18:25:53</t>
-  </si>
-  <si>
-    <t>2017-11-07T09:32:53</t>
-  </si>
-  <si>
-    <t>101.250.133.153</t>
-  </si>
-  <si>
-    <t>인천광역시</t>
-  </si>
-  <si>
-    <t>36.545220426162444, 126.12262607647038</t>
-  </si>
-  <si>
-    <t>코트</t>
-  </si>
-  <si>
-    <t>2017-11-12T05:21:29</t>
-  </si>
-  <si>
-    <t>2017-11-11T17:29:29</t>
-  </si>
-  <si>
-    <t>24.141.67.148</t>
-  </si>
-  <si>
-    <t>37.20594717370683, 127.92177764156956</t>
-  </si>
-  <si>
-    <t>2017-11-06T02:02:07</t>
-  </si>
-  <si>
-    <t>2017-11-05T20:29:07</t>
-  </si>
-  <si>
-    <t>44.4.251.104</t>
-  </si>
-  <si>
-    <t>36.08694571268556, 127.23075350212</t>
-  </si>
-  <si>
-    <t>2017-11-10T22:42:34</t>
-  </si>
-  <si>
-    <t>2017-11-08T09:42:34</t>
-  </si>
-  <si>
-    <t>17.99.74.211</t>
-  </si>
-  <si>
-    <t>36.37586531164656, 126.8124261263109</t>
-  </si>
-  <si>
-    <t>2017-11-11T05:03:14</t>
-  </si>
-  <si>
-    <t>2017-11-10T00:41:14</t>
-  </si>
-  <si>
-    <t>시티</t>
-  </si>
-  <si>
-    <t>183.211.18.89</t>
-  </si>
-  <si>
-    <t>36.25270428381599, 127.71299124731044</t>
-  </si>
-  <si>
-    <t>2017-11-12T23:45:30</t>
-  </si>
-  <si>
-    <t>2017-11-12T20:54:30</t>
+    <t>2017-11-07T11:42:48</t>
+  </si>
+  <si>
+    <t>2017-11-06T14:55:48</t>
+  </si>
+  <si>
+    <t>10.110.227.141</t>
+  </si>
+  <si>
+    <t>37.04229742612923, 129.08102204723565</t>
+  </si>
+  <si>
+    <t>2017-11-08T23:30:37</t>
+  </si>
+  <si>
+    <t>2017-11-05T04:29:37</t>
+  </si>
+  <si>
+    <t>232.103.180.101</t>
+  </si>
+  <si>
+    <t>36.57772190021747, 128.58366212069143</t>
+  </si>
+  <si>
+    <t>2017-11-10T20:25:43</t>
+  </si>
+  <si>
+    <t>2017-11-07T12:18:43</t>
+  </si>
+  <si>
+    <t>177.106.230.125</t>
+  </si>
+  <si>
+    <t>36.44912319096398, 129.81100955637504</t>
+  </si>
+  <si>
+    <t>2017-11-03T15:08:46</t>
+  </si>
+  <si>
+    <t>2017-11-03T00:41:46</t>
+  </si>
+  <si>
+    <t>60.10.31.243</t>
+  </si>
+  <si>
+    <t>37.456146981412715, 129.67164333883727</t>
+  </si>
+  <si>
+    <t>2017-11-12T12:07:03</t>
+  </si>
+  <si>
+    <t>2017-11-12T00:25:03</t>
+  </si>
+  <si>
+    <t>55.127.137.204</t>
+  </si>
+  <si>
+    <t>37.15111779456931, 129.39077608358537</t>
+  </si>
+  <si>
+    <t>2017-11-12T18:14:11</t>
+  </si>
+  <si>
+    <t>2017-11-12T11:01:11</t>
+  </si>
+  <si>
+    <t>3.151.207.14</t>
+  </si>
+  <si>
+    <t>36.850608130237134, 129.68248353781593</t>
+  </si>
+  <si>
+    <t>2017-11-11T15:21:30</t>
+  </si>
+  <si>
+    <t>2017-11-08T02:18:30</t>
+  </si>
+  <si>
+    <t>106.130.93.16</t>
+  </si>
+  <si>
+    <t>36.74191378146773, 126.58565519525928</t>
+  </si>
+  <si>
+    <t>2017-11-08T13:16:23</t>
+  </si>
+  <si>
+    <t>2017-11-04T16:53:23</t>
+  </si>
+  <si>
+    <t>221.71.181.180</t>
+  </si>
+  <si>
+    <t>36.912324298505915, 127.45626542274715</t>
+  </si>
+  <si>
+    <t>2017-11-12T00:45:05</t>
+  </si>
+  <si>
+    <t>2017-11-09T03:34:05</t>
+  </si>
+  <si>
+    <t>162.24.229.171</t>
+  </si>
+  <si>
+    <t>37.3739468409583, 126.72111912651904</t>
+  </si>
+  <si>
+    <t>2017-11-13T09:31:32</t>
+  </si>
+  <si>
+    <t>2017-11-10T14:42:32</t>
+  </si>
+  <si>
+    <t>118.73.50.156</t>
+  </si>
+  <si>
+    <t>36.73227227422583, 127.97136787965968</t>
+  </si>
+  <si>
+    <t>2017-11-10T07:15:05</t>
+  </si>
+  <si>
+    <t>2017-11-09T16:30:05</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1266,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
@@ -1281,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
@@ -1295,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="n">
         <v>28</v>
       </c>
-      <c r="D3" t="n">
-        <v>45</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1316,19 +1310,19 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J3" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
         <v>25</v>
@@ -1337,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -1348,49 +1342,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -1401,49 +1395,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
         <v>25</v>
       </c>
       <c r="O5" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -1454,52 +1448,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J6" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
         <v>25</v>
       </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1510,37 +1504,37 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>25</v>
@@ -1549,10 +1543,10 @@
         <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1560,52 +1554,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="n">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
         <v>25</v>
       </c>
       <c r="O8" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1613,37 +1607,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
         <v>73</v>
@@ -1652,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="O9" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
         <v>74</v>
@@ -1666,52 +1660,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J10" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>25</v>
       </c>
       <c r="O10" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1719,52 +1713,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
         <v>83</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
         <v>84</v>
       </c>
-      <c r="N11" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" t="n">
-        <v>50</v>
-      </c>
-      <c r="P11" t="s">
-        <v>86</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1772,52 +1766,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="n">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="n">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>88</v>
       </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
         <v>89</v>
       </c>
-      <c r="N12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" t="n">
-        <v>16</v>
-      </c>
-      <c r="P12" t="s">
-        <v>90</v>
-      </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1828,34 +1822,34 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>92</v>
       </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>93</v>
       </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
       <c r="J13" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
         <v>94</v>
@@ -1864,13 +1858,13 @@
         <v>25</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
         <v>95</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1878,52 +1872,52 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J14" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
       </c>
       <c r="O14" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1931,49 +1925,49 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N15" t="s">
         <v>25</v>
       </c>
       <c r="O15" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -1984,49 +1978,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J16" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N16" t="s">
         <v>25</v>
       </c>
       <c r="O16" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
@@ -2037,52 +2031,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>111</v>
       </c>
-      <c r="D17" t="n">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>115</v>
-      </c>
       <c r="M17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
       </c>
       <c r="O17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2090,37 +2084,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="M18" t="s">
         <v>122</v>
@@ -2129,13 +2123,13 @@
         <v>25</v>
       </c>
       <c r="O18" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
         <v>123</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2143,22 +2137,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
         <v>127</v>
@@ -2167,10 +2161,10 @@
         <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>128</v>
@@ -2182,13 +2176,13 @@
         <v>25</v>
       </c>
       <c r="O19" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="P19" t="s">
         <v>130</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2196,52 +2190,52 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>131</v>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J20" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2249,52 +2243,52 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D21" t="n">
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
         <v>139</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
         <v>140</v>
       </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>3</v>
-      </c>
-      <c r="P21" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2302,52 +2296,52 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
         <v>142</v>
       </c>
-      <c r="D22" t="n">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>23000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" t="s">
         <v>143</v>
       </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" t="s">
         <v>144</v>
       </c>
-      <c r="N22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5</v>
-      </c>
-      <c r="P22" t="s">
-        <v>145</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2355,52 +2349,52 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" t="n">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" t="s">
         <v>147</v>
       </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
         <v>148</v>
       </c>
-      <c r="N23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" t="s">
-        <v>149</v>
-      </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2408,52 +2402,52 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="n">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
         <v>150</v>
       </c>
-      <c r="C24" t="s">
+      <c r="I24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" t="s">
         <v>151</v>
       </c>
-      <c r="D24" t="n">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="N24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" t="n">
+        <v>26</v>
+      </c>
+      <c r="P24" t="s">
         <v>152</v>
       </c>
-      <c r="I24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" t="n">
-        <v>24000</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M24" t="s">
-        <v>153</v>
-      </c>
-      <c r="N24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>7</v>
-      </c>
-      <c r="P24" t="s">
-        <v>154</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2464,49 +2458,49 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="n">
+        <v>22000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>155</v>
       </c>
-      <c r="D25" t="n">
+      <c r="M25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="n">
         <v>30</v>
       </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="P25" t="s">
         <v>157</v>
       </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="n">
-        <v>12000</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" t="n">
-        <v>12</v>
-      </c>
-      <c r="P25" t="s">
-        <v>159</v>
-      </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2514,52 +2508,52 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="H26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" t="n">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
         <v>161</v>
       </c>
-      <c r="I26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>13000</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M26" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" t="n">
-        <v>13</v>
-      </c>
-      <c r="P26" t="s">
-        <v>163</v>
-      </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2567,52 +2561,52 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J27" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="K27" t="n">
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s">
         <v>25</v>
       </c>
       <c r="O27" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2620,49 +2614,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" t="s">
         <v>169</v>
       </c>
-      <c r="D28" t="n">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s">
         <v>170</v>
-      </c>
-      <c r="I28" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26000</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
-        <v>171</v>
-      </c>
-      <c r="N28" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" t="n">
-        <v>20</v>
-      </c>
-      <c r="P28" t="s">
-        <v>172</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2673,52 +2667,52 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="n">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" t="s">
         <v>173</v>
       </c>
-      <c r="D29" t="n">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
         <v>174</v>
       </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" t="n">
-        <v>14000</v>
-      </c>
-      <c r="K29" t="n">
-        <v>7</v>
-      </c>
-      <c r="L29" t="s">
-        <v>103</v>
-      </c>
-      <c r="M29" t="s">
-        <v>175</v>
-      </c>
-      <c r="N29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" t="n">
-        <v>26</v>
-      </c>
-      <c r="P29" t="s">
-        <v>176</v>
-      </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2726,52 +2720,52 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s">
         <v>25</v>
       </c>
       <c r="O30" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2779,52 +2773,52 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" t="n">
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="n">
+        <v>29000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" t="s">
+        <v>182</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7</v>
+      </c>
+      <c r="P31" t="s">
         <v>183</v>
       </c>
-      <c r="I31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7000</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7</v>
-      </c>
-      <c r="L31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" t="s">
-        <v>184</v>
-      </c>
-      <c r="N31" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" t="n">
-        <v>39</v>
-      </c>
-      <c r="P31" t="s">
-        <v>185</v>
-      </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2832,52 +2826,52 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
         <v>186</v>
       </c>
-      <c r="D32" t="n">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
-        <v>187</v>
-      </c>
       <c r="I32" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
         <v>18000</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="M32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9</v>
+      </c>
+      <c r="P32" t="s">
         <v>188</v>
       </c>
-      <c r="N32" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" t="n">
-        <v>40</v>
-      </c>
-      <c r="P32" t="s">
-        <v>189</v>
-      </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2885,37 +2879,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
         <v>190</v>
       </c>
-      <c r="D33" t="n">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J33" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
         <v>192</v>
@@ -2924,13 +2918,13 @@
         <v>25</v>
       </c>
       <c r="O33" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P33" t="s">
         <v>193</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2938,49 +2932,49 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>194</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H34" t="s">
         <v>195</v>
       </c>
       <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>20000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" t="s">
         <v>196</v>
       </c>
-      <c r="J34" t="n">
-        <v>22000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>13</v>
+      </c>
+      <c r="P34" t="s">
         <v>197</v>
-      </c>
-      <c r="N34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>198</v>
       </c>
       <c r="Q34" t="n">
         <v>3</v>
@@ -2994,49 +2988,49 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="n">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
         <v>199</v>
       </c>
-      <c r="D35" t="n">
-        <v>30</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" t="s">
-        <v>200</v>
-      </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J35" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="K35" t="n">
         <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="M35" t="s">
+        <v>200</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" t="n">
+        <v>17</v>
+      </c>
+      <c r="P35" t="s">
         <v>201</v>
       </c>
-      <c r="N35" t="s">
-        <v>85</v>
-      </c>
-      <c r="O35" t="n">
-        <v>10</v>
-      </c>
-      <c r="P35" t="s">
-        <v>202</v>
-      </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3044,37 +3038,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="n">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
         <v>203</v>
       </c>
-      <c r="D36" t="n">
-        <v>27</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>62</v>
-      </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H36" t="s">
         <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J36" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="M36" t="s">
         <v>205</v>
@@ -3083,13 +3077,13 @@
         <v>25</v>
       </c>
       <c r="O36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P36" t="s">
         <v>206</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3097,22 +3091,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
         <v>207</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>208</v>
@@ -3121,13 +3115,13 @@
         <v>22</v>
       </c>
       <c r="J37" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M37" t="s">
         <v>209</v>
@@ -3136,13 +3130,13 @@
         <v>25</v>
       </c>
       <c r="O37" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P37" t="s">
         <v>210</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3150,49 +3144,49 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>211</v>
       </c>
       <c r="D38" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J38" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N38" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="O38" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3203,52 +3197,52 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J39" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="K39" t="n">
         <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="M39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N39" t="s">
         <v>25</v>
       </c>
       <c r="O39" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3256,49 +3250,49 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
       </c>
       <c r="J40" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N40" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="O40" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
@@ -3309,49 +3303,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="J41" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="M41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N41" t="s">
         <v>25</v>
       </c>
       <c r="O41" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q41" t="n">
         <v>3</v>
@@ -3362,52 +3356,52 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J42" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="M42" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N42" t="s">
         <v>25</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3415,52 +3409,52 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="M43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N43" t="s">
         <v>25</v>
       </c>
       <c r="O43" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3468,49 +3462,49 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D44" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J44" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="M44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
       </c>
       <c r="O44" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3521,52 +3515,52 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D45" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J45" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="K45" t="n">
         <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="M45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N45" t="s">
         <v>25</v>
       </c>
       <c r="O45" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3574,52 +3568,52 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D46" t="n">
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J46" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="K46" t="n">
         <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N46" t="s">
         <v>25</v>
       </c>
       <c r="O46" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3627,52 +3621,52 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
         <v>251</v>
       </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="J47" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
       </c>
       <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" t="s">
         <v>252</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" t="n">
+        <v>35</v>
+      </c>
+      <c r="P47" t="s">
         <v>253</v>
       </c>
-      <c r="N47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" t="n">
-        <v>25</v>
-      </c>
-      <c r="P47" t="s">
-        <v>254</v>
-      </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3680,52 +3674,52 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" t="n">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s">
         <v>255</v>
-      </c>
-      <c r="D48" t="n">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s">
-        <v>256</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
       <c r="J48" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K48" t="n">
         <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="M48" t="s">
+        <v>256</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" t="n">
+        <v>36</v>
+      </c>
+      <c r="P48" t="s">
         <v>257</v>
       </c>
-      <c r="N48" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" t="n">
-        <v>34</v>
-      </c>
-      <c r="P48" t="s">
-        <v>258</v>
-      </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3733,49 +3727,49 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" t="n">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
         <v>259</v>
-      </c>
-      <c r="D49" t="n">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" t="s">
-        <v>260</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
       </c>
       <c r="J49" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="M49" t="s">
+        <v>260</v>
+      </c>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" t="n">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
         <v>261</v>
-      </c>
-      <c r="N49" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" t="n">
-        <v>35</v>
-      </c>
-      <c r="P49" t="s">
-        <v>262</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3786,52 +3780,52 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" t="n">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
         <v>263</v>
       </c>
-      <c r="D50" t="n">
-        <v>18</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50" t="s">
         <v>264</v>
       </c>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-      <c r="J50" t="n">
-        <v>17000</v>
-      </c>
-      <c r="K50" t="n">
-        <v>7</v>
-      </c>
-      <c r="L50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" t="n">
+        <v>45</v>
+      </c>
+      <c r="P50" t="s">
         <v>265</v>
       </c>
-      <c r="N50" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" t="n">
-        <v>37</v>
-      </c>
-      <c r="P50" t="s">
-        <v>266</v>
-      </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3839,49 +3833,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" t="n">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51" t="s">
         <v>267</v>
       </c>
-      <c r="C51" t="s">
-        <v>268</v>
-      </c>
-      <c r="D51" t="n">
-        <v>34</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" t="s">
-        <v>269</v>
-      </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="J51" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="K51" t="n">
         <v>7</v>
       </c>
       <c r="L51" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="M51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="O51" t="n">
         <v>47</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q51" t="n">
         <v>3</v>
